--- a/fastpt/data/test_data/excel_data/test_project/api_test_case_template.xlsx
+++ b/fastpt/data/test_data/excel_data/test_project/api_test_case_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api_pytest\fastpt\data\test_data\excel_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_project\automated_api_pytest\fastpt\data\test_data\excel_data\test_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA11BE9-EDDC-425B-B7D1-2BB15CEE5096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C4F677-B328-4F1A-8D66-FDBA40A838DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -61,7 +61,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -74,13 +74,13 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>","is_run":"None","request":{"method":"get","url":"/posts/1","params":"None","headers":"None","data_type":"None","data":"None","files":"None"},"setup":{"hooks":"None","wait_time":0},"teardown":{"sql":"None","hooks":"None","extract":[{"key":"test","set_type":"cache","jsonpath":"$.url"}],"assert":[{"check":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+      <t>","is_run":"None","request":{"method":"get","url":"/posts/1","params":"None","headers":"None","body_type":"None","body":"None","files":"None"},"setup":{"hooks":"None","wait_time":0},"teardown":{"sql":"None","hooks":"None","extract":[{"key":"test","set_type":"cache","jsonpath":"$.url"}],"assert":[{"check":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -105,7 +105,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -124,7 +124,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -143,7 +143,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
@@ -156,7 +156,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>"},"request":{"env":"dev.env","headers":"None","timeout":10,"verify":false,"redirects":true,"proxies":{"requests":{"http":"None","https":"None"}}},"module":"test"}</t>
+      <t>"},"request":{"env":"dev.env","headers":"None","timeout":10,"verify":false,"redirects":true,"proxies":{"http":"None","https":"None"}},"module":"test"}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,7 +190,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -581,7 +581,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
